--- a/Test_Eintrag.xlsx
+++ b/Test_Eintrag.xlsx
@@ -1034,31 +1034,47 @@
     <row r="31" ht="42.45" customHeight="1">
       <c r="A31" s="35" t="inlineStr">
         <is>
+          <t>Datum</t>
+        </is>
+      </c>
+      <c r="B31" s="35" t="inlineStr">
+        <is>
+          <t>Stunden</t>
+        </is>
+      </c>
+      <c r="C31" s="36" t="inlineStr">
+        <is>
+          <t>Leistung</t>
+        </is>
+      </c>
+      <c r="D31" s="36" t="inlineStr">
+        <is>
+          <t>Stundensatz / Preis pro Einheit</t>
+        </is>
+      </c>
+      <c r="E31" s="36" t="inlineStr">
+        <is>
+          <t>Betrag</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="44" t="inlineStr">
+        <is>
           <t>02/04/2026</t>
         </is>
       </c>
-      <c r="B31" s="35" t="n">
+      <c r="B32" s="25" t="n">
         <v>0.75</v>
       </c>
-      <c r="C31" s="36" t="inlineStr">
-        <is>
-          <t>Vorbereitung</t>
-        </is>
-      </c>
-      <c r="D31" s="36" t="n">
+      <c r="C32" s="26" t="inlineStr">
+        <is>
+          <t>Vorbereitung wie gewünscht</t>
+        </is>
+      </c>
+      <c r="D32" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="E31" s="36" t="inlineStr">
-        <is>
-          <t>Betrag</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="44" t="n"/>
-      <c r="B32" s="25" t="n"/>
-      <c r="C32" s="26" t="n"/>
-      <c r="D32" s="16" t="n"/>
       <c r="E32" s="37">
         <f>ROUND(B32*$D$32,2)</f>
         <v/>

--- a/Test_Eintrag.xlsx
+++ b/Test_Eintrag.xlsx
@@ -1059,32 +1059,32 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="44" t="inlineStr">
-        <is>
-          <t>02/04/2026</t>
-        </is>
-      </c>
-      <c r="B32" s="25" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C32" s="26" t="inlineStr">
-        <is>
-          <t>Vorbereitung wie gewünscht</t>
-        </is>
-      </c>
-      <c r="D32" s="16" t="n">
-        <v>19</v>
-      </c>
+      <c r="A32" s="44" t="n"/>
+      <c r="B32" s="25" t="n"/>
+      <c r="C32" s="26" t="n"/>
+      <c r="D32" s="16" t="n"/>
       <c r="E32" s="37">
         <f>ROUND(B32*$D$32,2)</f>
         <v/>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="44" t="n"/>
-      <c r="B33" s="25" t="n"/>
-      <c r="C33" s="26" t="n"/>
-      <c r="D33" s="16" t="n"/>
+      <c r="A33" s="44" t="inlineStr">
+        <is>
+          <t>02/04/2026</t>
+        </is>
+      </c>
+      <c r="B33" s="25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C33" s="26" t="inlineStr">
+        <is>
+          <t>Vorbereitung wie gewünscht</t>
+        </is>
+      </c>
+      <c r="D33" s="16" t="n">
+        <v>19</v>
+      </c>
       <c r="E33" s="37">
         <f>ROUND(B33*$D$32,2)</f>
         <v/>

--- a/Test_Eintrag.xlsx
+++ b/Test_Eintrag.xlsx
@@ -1059,13 +1059,24 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="44" t="n"/>
-      <c r="B32" s="25" t="n"/>
-      <c r="C32" s="26" t="n"/>
-      <c r="D32" s="16" t="n"/>
-      <c r="E32" s="37">
-        <f>ROUND(B32*$D$32,2)</f>
-        <v/>
+      <c r="A32" s="44" t="inlineStr">
+        <is>
+          <t>02/04/2026</t>
+        </is>
+      </c>
+      <c r="B32" s="25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C32" s="26" t="inlineStr">
+        <is>
+          <t>Vorbereitung wie gewünscht</t>
+        </is>
+      </c>
+      <c r="D32" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="E32" s="37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1085,69 +1096,134 @@
       <c r="D33" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="E33" s="37">
-        <f>ROUND(B33*$D$32,2)</f>
-        <v/>
+      <c r="E33" s="37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="44" t="n"/>
-      <c r="B34" s="25" t="n"/>
-      <c r="C34" s="26" t="n"/>
-      <c r="D34" s="16" t="n"/>
-      <c r="E34" s="37">
-        <f>ROUND(B34*$D$32,2)</f>
-        <v/>
+      <c r="A34" s="44" t="inlineStr">
+        <is>
+          <t>02/04/2026</t>
+        </is>
+      </c>
+      <c r="B34" s="25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C34" s="26" t="inlineStr">
+        <is>
+          <t>Vorbereitung wie gewünscht</t>
+        </is>
+      </c>
+      <c r="D34" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="E34" s="37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="44" t="n"/>
-      <c r="B35" s="25" t="n"/>
-      <c r="C35" s="26" t="n"/>
-      <c r="D35" s="16" t="n"/>
-      <c r="E35" s="37">
-        <f>ROUND(B35*$D$32,2)</f>
-        <v/>
+      <c r="A35" s="44" t="inlineStr">
+        <is>
+          <t>02/04/2026</t>
+        </is>
+      </c>
+      <c r="B35" s="25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C35" s="26" t="inlineStr">
+        <is>
+          <t>Vorbereitung wie gewünscht</t>
+        </is>
+      </c>
+      <c r="D35" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="E35" s="37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="44" t="n"/>
-      <c r="B36" s="25" t="n"/>
-      <c r="C36" s="26" t="n"/>
-      <c r="D36" s="16" t="n"/>
-      <c r="E36" s="37">
-        <f>ROUND(B36*$D$32,2)</f>
-        <v/>
+      <c r="A36" s="44" t="inlineStr">
+        <is>
+          <t>02/04/2026</t>
+        </is>
+      </c>
+      <c r="B36" s="25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C36" s="26" t="inlineStr">
+        <is>
+          <t>Vorbereitung wie gewünscht</t>
+        </is>
+      </c>
+      <c r="D36" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="E36" s="37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="44" t="n"/>
-      <c r="B37" s="25" t="n"/>
-      <c r="C37" s="26" t="n"/>
-      <c r="D37" s="16" t="n"/>
-      <c r="E37" s="37">
-        <f>ROUND(B37*$D$32,2)</f>
-        <v/>
+      <c r="A37" s="44" t="inlineStr">
+        <is>
+          <t>02/04/2026</t>
+        </is>
+      </c>
+      <c r="B37" s="25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C37" s="26" t="inlineStr">
+        <is>
+          <t>Vorbereitung wie gewünscht</t>
+        </is>
+      </c>
+      <c r="D37" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="E37" s="37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="44" t="n"/>
-      <c r="B38" s="25" t="n"/>
-      <c r="C38" s="26" t="n"/>
-      <c r="D38" s="16" t="n"/>
-      <c r="E38" s="37">
-        <f>ROUND(B38*$D$32,2)</f>
-        <v/>
+      <c r="A38" s="44" t="inlineStr">
+        <is>
+          <t>02/04/2026</t>
+        </is>
+      </c>
+      <c r="B38" s="25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C38" s="26" t="inlineStr">
+        <is>
+          <t>Vorbereitung wie gewünscht</t>
+        </is>
+      </c>
+      <c r="D38" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="E38" s="37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="44" t="n"/>
-      <c r="B39" s="17" t="n"/>
-      <c r="C39" s="26" t="n"/>
-      <c r="D39" s="16" t="n"/>
-      <c r="E39" s="37">
-        <f>ROUND(B39*$D$32,2)</f>
-        <v/>
+      <c r="A39" s="44" t="inlineStr">
+        <is>
+          <t>02/04/2026</t>
+        </is>
+      </c>
+      <c r="B39" s="17" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C39" s="26" t="inlineStr">
+        <is>
+          <t>Vorbereitung wie gewünscht</t>
+        </is>
+      </c>
+      <c r="D39" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="E39" s="37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">

--- a/Test_Eintrag.xlsx
+++ b/Test_Eintrag.xlsx
@@ -1075,8 +1075,9 @@
       <c r="D32" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="E32" s="37" t="n">
-        <v>0</v>
+      <c r="E32" s="37">
+        <f>ROUND(B32*$D$32,2)</f>
+        <v/>
       </c>
     </row>
     <row r="33">
@@ -1096,8 +1097,9 @@
       <c r="D33" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="E33" s="37" t="n">
-        <v>0</v>
+      <c r="E33" s="37">
+        <f>ROUND(B33*$D$32,2)</f>
+        <v/>
       </c>
     </row>
     <row r="34">
@@ -1117,8 +1119,9 @@
       <c r="D34" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="E34" s="37" t="n">
-        <v>0</v>
+      <c r="E34" s="37">
+        <f>ROUND(B34*$D$32,2)</f>
+        <v/>
       </c>
     </row>
     <row r="35">
@@ -1138,8 +1141,9 @@
       <c r="D35" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="E35" s="37" t="n">
-        <v>0</v>
+      <c r="E35" s="37">
+        <f>ROUND(B35*$D$32,2)</f>
+        <v/>
       </c>
     </row>
     <row r="36">
@@ -1159,8 +1163,9 @@
       <c r="D36" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="E36" s="37" t="n">
-        <v>0</v>
+      <c r="E36" s="37">
+        <f>ROUND(B36*$D$32,2)</f>
+        <v/>
       </c>
     </row>
     <row r="37">
@@ -1180,8 +1185,9 @@
       <c r="D37" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="E37" s="37" t="n">
-        <v>0</v>
+      <c r="E37" s="37">
+        <f>ROUND(B37*$D$32,2)</f>
+        <v/>
       </c>
     </row>
     <row r="38">
@@ -1201,8 +1207,9 @@
       <c r="D38" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="E38" s="37" t="n">
-        <v>0</v>
+      <c r="E38" s="37">
+        <f>ROUND(B38*$D$32,2)</f>
+        <v/>
       </c>
     </row>
     <row r="39">
@@ -1222,8 +1229,9 @@
       <c r="D39" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="E39" s="37" t="n">
-        <v>0</v>
+      <c r="E39" s="37">
+        <f>ROUND(B39*$D$32,2)</f>
+        <v/>
       </c>
     </row>
     <row r="40">

--- a/Test_Eintrag.xlsx
+++ b/Test_Eintrag.xlsx
@@ -1081,154 +1081,70 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="44" t="inlineStr">
-        <is>
-          <t>02/04/2026</t>
-        </is>
-      </c>
-      <c r="B33" s="25" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C33" s="26" t="inlineStr">
-        <is>
-          <t>Vorbereitung wie gewünscht</t>
-        </is>
-      </c>
-      <c r="D33" s="16" t="n">
-        <v>19</v>
-      </c>
+      <c r="A33" s="44" t="n"/>
+      <c r="B33" s="25" t="n"/>
+      <c r="C33" s="26" t="n"/>
+      <c r="D33" s="16" t="n"/>
       <c r="E33" s="37">
         <f>ROUND(B33*$D$32,2)</f>
         <v/>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="44" t="inlineStr">
-        <is>
-          <t>02/04/2026</t>
-        </is>
-      </c>
-      <c r="B34" s="25" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C34" s="26" t="inlineStr">
-        <is>
-          <t>Vorbereitung wie gewünscht</t>
-        </is>
-      </c>
-      <c r="D34" s="16" t="n">
-        <v>19</v>
-      </c>
+      <c r="A34" s="44" t="n"/>
+      <c r="B34" s="25" t="n"/>
+      <c r="C34" s="26" t="n"/>
+      <c r="D34" s="16" t="n"/>
       <c r="E34" s="37">
         <f>ROUND(B34*$D$32,2)</f>
         <v/>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="44" t="inlineStr">
-        <is>
-          <t>02/04/2026</t>
-        </is>
-      </c>
-      <c r="B35" s="25" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C35" s="26" t="inlineStr">
-        <is>
-          <t>Vorbereitung wie gewünscht</t>
-        </is>
-      </c>
-      <c r="D35" s="16" t="n">
-        <v>19</v>
-      </c>
+      <c r="A35" s="44" t="n"/>
+      <c r="B35" s="25" t="n"/>
+      <c r="C35" s="26" t="n"/>
+      <c r="D35" s="16" t="n"/>
       <c r="E35" s="37">
         <f>ROUND(B35*$D$32,2)</f>
         <v/>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="44" t="inlineStr">
-        <is>
-          <t>02/04/2026</t>
-        </is>
-      </c>
-      <c r="B36" s="25" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C36" s="26" t="inlineStr">
-        <is>
-          <t>Vorbereitung wie gewünscht</t>
-        </is>
-      </c>
-      <c r="D36" s="16" t="n">
-        <v>19</v>
-      </c>
+      <c r="A36" s="44" t="n"/>
+      <c r="B36" s="25" t="n"/>
+      <c r="C36" s="26" t="n"/>
+      <c r="D36" s="16" t="n"/>
       <c r="E36" s="37">
         <f>ROUND(B36*$D$32,2)</f>
         <v/>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="44" t="inlineStr">
-        <is>
-          <t>02/04/2026</t>
-        </is>
-      </c>
-      <c r="B37" s="25" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C37" s="26" t="inlineStr">
-        <is>
-          <t>Vorbereitung wie gewünscht</t>
-        </is>
-      </c>
-      <c r="D37" s="16" t="n">
-        <v>19</v>
-      </c>
+      <c r="A37" s="44" t="n"/>
+      <c r="B37" s="25" t="n"/>
+      <c r="C37" s="26" t="n"/>
+      <c r="D37" s="16" t="n"/>
       <c r="E37" s="37">
         <f>ROUND(B37*$D$32,2)</f>
         <v/>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="44" t="inlineStr">
-        <is>
-          <t>02/04/2026</t>
-        </is>
-      </c>
-      <c r="B38" s="25" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C38" s="26" t="inlineStr">
-        <is>
-          <t>Vorbereitung wie gewünscht</t>
-        </is>
-      </c>
-      <c r="D38" s="16" t="n">
-        <v>19</v>
-      </c>
+      <c r="A38" s="44" t="n"/>
+      <c r="B38" s="25" t="n"/>
+      <c r="C38" s="26" t="n"/>
+      <c r="D38" s="16" t="n"/>
       <c r="E38" s="37">
         <f>ROUND(B38*$D$32,2)</f>
         <v/>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="44" t="inlineStr">
-        <is>
-          <t>02/04/2026</t>
-        </is>
-      </c>
-      <c r="B39" s="17" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C39" s="26" t="inlineStr">
-        <is>
-          <t>Vorbereitung wie gewünscht</t>
-        </is>
-      </c>
-      <c r="D39" s="16" t="n">
-        <v>19</v>
-      </c>
+      <c r="A39" s="44" t="n"/>
+      <c r="B39" s="17" t="n"/>
+      <c r="C39" s="26" t="n"/>
+      <c r="D39" s="16" t="n"/>
       <c r="E39" s="37">
         <f>ROUND(B39*$D$32,2)</f>
         <v/>

--- a/Test_Eintrag.xlsx
+++ b/Test_Eintrag.xlsx
@@ -1081,10 +1081,22 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="44" t="n"/>
-      <c r="B33" s="25" t="n"/>
-      <c r="C33" s="26" t="n"/>
-      <c r="D33" s="16" t="n"/>
+      <c r="A33" s="44" t="inlineStr">
+        <is>
+          <t>02/04/2026</t>
+        </is>
+      </c>
+      <c r="B33" s="25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C33" s="26" t="inlineStr">
+        <is>
+          <t>Vorbereitung wie gewünscht</t>
+        </is>
+      </c>
+      <c r="D33" s="16" t="n">
+        <v>19</v>
+      </c>
       <c r="E33" s="37">
         <f>ROUND(B33*$D$32,2)</f>
         <v/>

--- a/Test_Eintrag.xlsx
+++ b/Test_Eintrag.xlsx
@@ -1098,17 +1098,29 @@
         <v>19</v>
       </c>
       <c r="E33" s="37">
-        <f>ROUND(B33*$D$32,2)</f>
+        <f>ROUND(B33*$D$33,2)</f>
         <v/>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="44" t="n"/>
-      <c r="B34" s="25" t="n"/>
-      <c r="C34" s="26" t="n"/>
-      <c r="D34" s="16" t="n"/>
+      <c r="A34" s="44" t="inlineStr">
+        <is>
+          <t>02/04/2026</t>
+        </is>
+      </c>
+      <c r="B34" s="25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C34" s="26" t="inlineStr">
+        <is>
+          <t>Vorbereitung wie gewünscht</t>
+        </is>
+      </c>
+      <c r="D34" s="16" t="n">
+        <v>19</v>
+      </c>
       <c r="E34" s="37">
-        <f>ROUND(B34*$D$32,2)</f>
+        <f>ROUND(B34*$D$34,2)</f>
         <v/>
       </c>
     </row>

--- a/Test_Eintrag.xlsx
+++ b/Test_Eintrag.xlsx
@@ -1098,7 +1098,7 @@
         <v>19</v>
       </c>
       <c r="E33" s="37">
-        <f>ROUND(B33*$D$33,2)</f>
+        <f>ROUND(B33*$D$32,2)</f>
         <v/>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
         <v>19</v>
       </c>
       <c r="E34" s="37">
-        <f>ROUND(B34*$D$34,2)</f>
+        <f>ROUND(B34*$D$32,2)</f>
         <v/>
       </c>
     </row>

--- a/Test_Eintrag.xlsx
+++ b/Test_Eintrag.xlsx
@@ -1076,7 +1076,7 @@
         <v>19</v>
       </c>
       <c r="E32" s="37">
-        <f>ROUND(B32*$D$32,2)</f>
+        <f>ROUND(B32*$D$32;2)</f>
         <v/>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
         <v>19</v>
       </c>
       <c r="E33" s="37">
-        <f>ROUND(B33*$D$32,2)</f>
+        <f>ROUND(B33*$D$32;2)</f>
         <v/>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
         <v>19</v>
       </c>
       <c r="E34" s="37">
-        <f>ROUND(B34*$D$32,2)</f>
+        <f>ROUND(B34*$D$32;2)</f>
         <v/>
       </c>
     </row>

--- a/Test_Eintrag.xlsx
+++ b/Test_Eintrag.xlsx
@@ -1076,7 +1076,7 @@
         <v>19</v>
       </c>
       <c r="E32" s="37">
-        <f>ROUND(B32*$D$32;2)</f>
+        <f>ROUND(B32*$D$32,2)</f>
         <v/>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
         <v>19</v>
       </c>
       <c r="E33" s="37">
-        <f>ROUND(B33*$D$32;2)</f>
+        <f>ROUND(B33*$D$32,2)</f>
         <v/>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
         <v>19</v>
       </c>
       <c r="E34" s="37">
-        <f>ROUND(B34*$D$32;2)</f>
+        <f>ROUND(B34*$D$32,2)</f>
         <v/>
       </c>
     </row>

--- a/Test_Eintrag.xlsx
+++ b/Test_Eintrag.xlsx
@@ -1076,7 +1076,7 @@
         <v>19</v>
       </c>
       <c r="E32" s="37">
-        <f>ROUND(B32*$D$32,2)</f>
+        <f>RUNDEN(B32*$D$32;2)</f>
         <v/>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
         <v>19</v>
       </c>
       <c r="E33" s="37">
-        <f>ROUND(B33*$D$32,2)</f>
+        <f>RUNDEN(B33*$D$32;2)</f>
         <v/>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
         <v>19</v>
       </c>
       <c r="E34" s="37">
-        <f>ROUND(B34*$D$32,2)</f>
+        <f>RUNDEN(B34*$D$32;2)</f>
         <v/>
       </c>
     </row>

--- a/Test_Eintrag.xlsx
+++ b/Test_Eintrag.xlsx
@@ -762,7 +762,7 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.15" outlineLevelCol="0"/>
   <cols>
     <col width="15.07421875" customWidth="1" style="1" min="1" max="1"/>
     <col width="20.69140625" customWidth="1" style="1" min="2" max="2"/>
@@ -1059,66 +1059,30 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="44" t="inlineStr">
-        <is>
-          <t>02/04/2026</t>
-        </is>
-      </c>
-      <c r="B32" s="25" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C32" s="26" t="inlineStr">
-        <is>
-          <t>Vorbereitung wie gewünscht</t>
-        </is>
-      </c>
-      <c r="D32" s="16" t="n">
-        <v>19</v>
-      </c>
+      <c r="A32" s="44" t="n"/>
+      <c r="B32" s="25" t="n"/>
+      <c r="C32" s="26" t="n"/>
+      <c r="D32" s="16" t="n"/>
       <c r="E32" s="37">
         <f>ROUND(B32*$D$32,2)</f>
         <v/>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="44" t="inlineStr">
-        <is>
-          <t>02/04/2026</t>
-        </is>
-      </c>
-      <c r="B33" s="25" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C33" s="26" t="inlineStr">
-        <is>
-          <t>Vorbereitung wie gewünscht</t>
-        </is>
-      </c>
-      <c r="D33" s="16" t="n">
-        <v>19</v>
-      </c>
+      <c r="A33" s="44" t="n"/>
+      <c r="B33" s="25" t="n"/>
+      <c r="C33" s="26" t="n"/>
+      <c r="D33" s="16" t="n"/>
       <c r="E33" s="37">
         <f>ROUND(B33*$D$32,2)</f>
         <v/>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="44" t="inlineStr">
-        <is>
-          <t>02/04/2026</t>
-        </is>
-      </c>
-      <c r="B34" s="25" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C34" s="26" t="inlineStr">
-        <is>
-          <t>Vorbereitung wie gewünscht</t>
-        </is>
-      </c>
-      <c r="D34" s="16" t="n">
-        <v>19</v>
-      </c>
+      <c r="A34" s="44" t="n"/>
+      <c r="B34" s="25" t="n"/>
+      <c r="C34" s="26" t="n"/>
+      <c r="D34" s="16" t="n"/>
       <c r="E34" s="37">
         <f>ROUND(B34*$D$32,2)</f>
         <v/>
@@ -1315,17 +1279,24 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Bank:</t>
-        </is>
-      </c>
-      <c r="B53" s="20" t="n"/>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B53" s="20" t="n">
+        <v>0.75</v>
+      </c>
       <c r="C53" s="39" t="inlineStr">
         <is>
-          <t xml:space="preserve">ING </t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="n"/>
-      <c r="E53" s="3" t="n"/>
+          <t>Vorbereitung: 0,75 Stunden</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E53" s="3">
+        <f>ROUND(B53*$D$32,2)</f>
+        <v/>
+      </c>
       <c r="F53" s="3" t="n"/>
       <c r="G53" s="3" t="n"/>
       <c r="H53" s="3" t="n"/>
@@ -1333,13 +1304,24 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>IBAN:</t>
-        </is>
-      </c>
-      <c r="B54" s="20" t="n"/>
-      <c r="C54" s="40" t="n"/>
-      <c r="D54" s="12" t="n"/>
-      <c r="E54" s="10" t="n"/>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="B54" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" s="40" t="inlineStr">
+        <is>
+          <t>Unterricht</t>
+        </is>
+      </c>
+      <c r="D54" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="E54" s="10">
+        <f>ROUND(B54*$D$32,2)</f>
+        <v/>
+      </c>
       <c r="F54" s="6" t="n"/>
       <c r="G54" s="6" t="n"/>
       <c r="H54" s="3" t="n"/>

--- a/Test_Eintrag.xlsx
+++ b/Test_Eintrag.xlsx
@@ -1059,60 +1059,132 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="44" t="n"/>
-      <c r="B32" s="25" t="n"/>
-      <c r="C32" s="26" t="n"/>
-      <c r="D32" s="16" t="n"/>
+      <c r="A32" s="44" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B32" s="25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C32" s="26" t="inlineStr">
+        <is>
+          <t>Vorbereitung: 0,75 Stunden</t>
+        </is>
+      </c>
+      <c r="D32" s="16" t="n">
+        <v>19</v>
+      </c>
       <c r="E32" s="37">
         <f>ROUND(B32*$D$32,2)</f>
         <v/>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="44" t="n"/>
-      <c r="B33" s="25" t="n"/>
-      <c r="C33" s="26" t="n"/>
-      <c r="D33" s="16" t="n"/>
+      <c r="A33" s="44" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="B33" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" s="26" t="inlineStr">
+        <is>
+          <t>Unterricht</t>
+        </is>
+      </c>
+      <c r="D33" s="16" t="n">
+        <v>19</v>
+      </c>
       <c r="E33" s="37">
         <f>ROUND(B33*$D$32,2)</f>
         <v/>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="44" t="n"/>
-      <c r="B34" s="25" t="n"/>
-      <c r="C34" s="26" t="n"/>
-      <c r="D34" s="16" t="n"/>
+      <c r="A34" s="44" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+      <c r="B34" s="25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C34" s="26" t="inlineStr">
+        <is>
+          <t>Vorbereitung: 0,75 Stunden</t>
+        </is>
+      </c>
+      <c r="D34" s="16" t="n">
+        <v>19</v>
+      </c>
       <c r="E34" s="37">
         <f>ROUND(B34*$D$32,2)</f>
         <v/>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="44" t="n"/>
-      <c r="B35" s="25" t="n"/>
-      <c r="C35" s="26" t="n"/>
-      <c r="D35" s="16" t="n"/>
+      <c r="A35" s="44" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="B35" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" s="26" t="inlineStr">
+        <is>
+          <t>Unterricht</t>
+        </is>
+      </c>
+      <c r="D35" s="16" t="n">
+        <v>19</v>
+      </c>
       <c r="E35" s="37">
         <f>ROUND(B35*$D$32,2)</f>
         <v/>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="44" t="n"/>
-      <c r="B36" s="25" t="n"/>
-      <c r="C36" s="26" t="n"/>
-      <c r="D36" s="16" t="n"/>
+      <c r="A36" s="44" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B36" s="25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C36" s="26" t="inlineStr">
+        <is>
+          <t>Vorbereitung: 0,75 Stunden</t>
+        </is>
+      </c>
+      <c r="D36" s="16" t="n">
+        <v>19</v>
+      </c>
       <c r="E36" s="37">
         <f>ROUND(B36*$D$32,2)</f>
         <v/>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="44" t="n"/>
-      <c r="B37" s="25" t="n"/>
-      <c r="C37" s="26" t="n"/>
-      <c r="D37" s="16" t="n"/>
+      <c r="A37" s="44" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B37" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" s="26" t="inlineStr">
+        <is>
+          <t>Unterricht</t>
+        </is>
+      </c>
+      <c r="D37" s="16" t="n">
+        <v>19</v>
+      </c>
       <c r="E37" s="37">
         <f>ROUND(B37*$D$32,2)</f>
         <v/>
@@ -1279,24 +1351,17 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
-        </is>
-      </c>
-      <c r="B53" s="20" t="n">
-        <v>0.75</v>
-      </c>
+          <t>Bank:</t>
+        </is>
+      </c>
+      <c r="B53" s="20" t="n"/>
       <c r="C53" s="39" t="inlineStr">
         <is>
-          <t>Vorbereitung: 0,75 Stunden</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="E53" s="3">
-        <f>ROUND(B53*$D$32,2)</f>
-        <v/>
-      </c>
+          <t xml:space="preserve">ING </t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="n"/>
+      <c r="E53" s="3" t="n"/>
       <c r="F53" s="3" t="n"/>
       <c r="G53" s="3" t="n"/>
       <c r="H53" s="3" t="n"/>
@@ -1304,24 +1369,13 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="B54" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C54" s="40" t="inlineStr">
-        <is>
-          <t>Unterricht</t>
-        </is>
-      </c>
-      <c r="D54" s="12" t="n">
-        <v>19</v>
-      </c>
-      <c r="E54" s="10">
-        <f>ROUND(B54*$D$32,2)</f>
-        <v/>
-      </c>
+          <t>IBAN:</t>
+        </is>
+      </c>
+      <c r="B54" s="20" t="n"/>
+      <c r="C54" s="40" t="n"/>
+      <c r="D54" s="12" t="n"/>
+      <c r="E54" s="10" t="n"/>
       <c r="F54" s="6" t="n"/>
       <c r="G54" s="6" t="n"/>
       <c r="H54" s="3" t="n"/>
